--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="值集数据" r:id="rId5" sheetId="2"/>
+    <sheet name="值集数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="204">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2377,6 +2266,9 @@
   </si>
   <si>
     <t>TB</t>
+  </si>
+  <si>
+    <t>下载</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2457,12 +2349,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="45">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2498,37 +2425,160 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2550,170 +2600,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2744,8 +2669,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2846,13 +2957,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2861,32 +3218,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2896,61 +3265,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3023,9 +3400,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3283,285 +3657,298 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="34.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.5833333333333" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3571,13 +3958,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3598,7 +3985,7 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="42">
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N7" t="s">
@@ -3629,7 +4016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:21">
       <c r="E8" t="s">
         <v>72</v>
       </c>
@@ -3655,7 +4042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:21">
       <c r="E9" t="s">
         <v>78</v>
       </c>
@@ -3681,7 +4068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:21">
       <c r="E10" t="s">
         <v>81</v>
       </c>
@@ -3707,7 +4094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:21">
       <c r="E11" t="s">
         <v>84</v>
       </c>
@@ -3733,7 +4120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:21">
       <c r="E12" t="s">
         <v>87</v>
       </c>
@@ -3759,7 +4146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:21">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -3785,7 +4172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:21">
       <c r="E14" t="s">
         <v>93</v>
       </c>
@@ -3811,7 +4198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:21">
       <c r="E15" t="s">
         <v>96</v>
       </c>
@@ -3837,7 +4224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:21">
       <c r="E16" t="s">
         <v>99</v>
       </c>
@@ -3863,7 +4250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:21">
       <c r="E17" t="s">
         <v>102</v>
       </c>
@@ -3889,7 +4276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3899,19 +4286,19 @@
       <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="D19" t="s" s="43">
+      <c r="D19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s" s="44">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F19" t="s" s="45">
+      <c r="F19" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G19" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s" s="46">
+      <c r="H19" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I19" t="s">
@@ -3926,7 +4313,7 @@
       <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="M19" t="s" s="47">
+      <c r="M19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N19" t="s">
@@ -3935,7 +4322,7 @@
       <c r="O19" t="s">
         <v>114</v>
       </c>
-      <c r="P19" t="s" s="48">
+      <c r="P19" s="3" t="s">
         <v>115</v>
       </c>
       <c r="Q19" t="s">
@@ -3948,12 +4335,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:19">
       <c r="E20" t="s">
         <v>118</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G20" t="s">
         <v>73</v>
@@ -3977,12 +4365,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:19">
       <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G21" t="s">
         <v>73</v>
@@ -4006,12 +4395,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:19">
       <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="G22" t="s">
         <v>73</v>
@@ -4035,12 +4425,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:19">
       <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G23" t="s">
         <v>79</v>
@@ -4064,12 +4455,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:19">
       <c r="E24" t="s">
         <v>118</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
@@ -4093,12 +4485,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:19">
       <c r="E25" t="s">
         <v>118</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="G25" t="s">
         <v>79</v>
@@ -4122,12 +4515,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:19">
       <c r="E26" t="s">
         <v>118</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G26" t="s">
         <v>82</v>
@@ -4151,12 +4545,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:19">
       <c r="E27" t="s">
         <v>118</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G27" t="s">
         <v>82</v>
@@ -4180,12 +4575,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:19">
       <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
@@ -4209,12 +4605,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:19">
       <c r="E29" t="s">
         <v>118</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G29" t="s">
         <v>85</v>
@@ -4238,12 +4635,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:19">
       <c r="E30" t="s">
         <v>118</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G30" t="s">
         <v>85</v>
@@ -4267,12 +4665,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:19">
       <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G31" t="s">
         <v>85</v>
@@ -4296,12 +4695,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:19">
       <c r="E32" t="s">
         <v>118</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G32" t="s">
         <v>88</v>
@@ -4325,12 +4725,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:19">
       <c r="E33" t="s">
         <v>118</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G33" t="s">
         <v>88</v>
@@ -4354,12 +4755,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:19">
       <c r="E34" t="s">
         <v>118</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="G34" t="s">
         <v>88</v>
@@ -4383,12 +4785,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:19">
       <c r="E35" t="s">
         <v>118</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G35" t="s">
         <v>91</v>
@@ -4412,12 +4815,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:19">
       <c r="E36" t="s">
         <v>118</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G36" t="s">
         <v>91</v>
@@ -4441,12 +4845,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:19">
       <c r="E37" t="s">
         <v>118</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G37" t="s">
         <v>91</v>
@@ -4470,12 +4875,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:19">
       <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G38" t="s">
         <v>94</v>
@@ -4499,12 +4905,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:19">
       <c r="E39" t="s">
         <v>118</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G39" t="s">
         <v>94</v>
@@ -4528,12 +4935,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:19">
       <c r="E40" t="s">
         <v>118</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
       </c>
       <c r="G40" t="s">
         <v>94</v>
@@ -4557,12 +4965,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:19">
       <c r="E41" t="s">
         <v>118</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G41" t="s">
         <v>97</v>
@@ -4586,12 +4995,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:19">
       <c r="E42" t="s">
         <v>118</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G42" t="s">
         <v>97</v>
@@ -4615,12 +5025,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:19">
       <c r="E43" t="s">
         <v>118</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G43" t="s">
         <v>97</v>
@@ -4644,12 +5055,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:19">
       <c r="E44" t="s">
         <v>118</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -4673,12 +5085,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:19">
       <c r="E45" t="s">
         <v>118</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G45" t="s">
         <v>97</v>
@@ -4702,12 +5115,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:19">
       <c r="E46" t="s">
         <v>118</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G46" t="s">
         <v>97</v>
@@ -4731,12 +5145,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:19">
       <c r="E47" t="s">
         <v>118</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G47" t="s">
         <v>100</v>
@@ -4760,12 +5175,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:19">
       <c r="E48" t="s">
         <v>118</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -4789,12 +5205,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:19">
       <c r="E49" t="s">
         <v>118</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G49" t="s">
         <v>100</v>
@@ -4818,12 +5235,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:19">
       <c r="E50" t="s">
         <v>118</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G50" t="s">
         <v>100</v>
@@ -4847,12 +5265,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:19">
       <c r="E51" t="s">
         <v>118</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
       </c>
       <c r="G51" t="s">
         <v>103</v>
@@ -4876,12 +5295,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:19">
       <c r="E52" t="s">
         <v>118</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
       </c>
       <c r="G52" t="s">
         <v>103</v>
@@ -4905,12 +5325,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:19">
       <c r="E53" t="s">
         <v>118</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
       </c>
       <c r="G53" t="s">
         <v>103</v>
@@ -4934,119 +5355,150 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="54" spans="5:19">
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="str">
+        <f>E8</f>
+        <v>hpfm_lov-8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>178</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" t="s" s="49">
+      <c r="C56" t="s">
         <v>179</v>
       </c>
-      <c r="E55" t="s" s="50">
+      <c r="D56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F55" t="s" s="51">
+      <c r="E56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F56" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G56" t="s">
         <v>183</v>
       </c>
-      <c r="I55" t="s" s="52">
+      <c r="H56" t="s">
         <v>184</v>
       </c>
-      <c r="J55" t="s" s="53">
+      <c r="I56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>67</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L56" t="s">
         <v>68</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M56" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56" t="s">
+        <v>188</v>
+      </c>
+      <c r="P56" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>190</v>
+      </c>
+      <c r="R56" t="s">
+        <v>191</v>
+      </c>
+      <c r="S56" t="s">
+        <v>192</v>
+      </c>
+      <c r="T56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" t="s">
+        <v>197</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N55" t="s">
-        <v>186</v>
-      </c>
-      <c r="O55" t="s">
-        <v>187</v>
-      </c>
-      <c r="P55" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>189</v>
-      </c>
-      <c r="R55" t="s">
-        <v>190</v>
-      </c>
-      <c r="S55" t="s">
-        <v>191</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="I58" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" t="s">
+        <v>199</v>
+      </c>
+      <c r="K58" t="s">
+        <v>114</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M58" t="s">
+        <v>201</v>
+      </c>
+      <c r="N58" t="s">
+        <v>202</v>
+      </c>
+      <c r="O58" t="s">
+        <v>203</v>
+      </c>
+      <c r="P58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" t="s" s="54">
-        <v>193</v>
-      </c>
-      <c r="E57" t="s" s="55">
-        <v>194</v>
-      </c>
-      <c r="F57" t="s" s="56">
-        <v>195</v>
-      </c>
-      <c r="G57" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" t="s" s="57">
-        <v>184</v>
-      </c>
-      <c r="I57" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" t="s">
-        <v>198</v>
-      </c>
-      <c r="K57" t="s">
-        <v>114</v>
-      </c>
-      <c r="L57" t="s" s="58">
-        <v>199</v>
-      </c>
-      <c r="M57" t="s">
-        <v>200</v>
-      </c>
-      <c r="N57" t="s">
-        <v>201</v>
-      </c>
-      <c r="O57" t="s">
-        <v>202</v>
-      </c>
-      <c r="P57" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hrds\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442ECEDA-FC54-42C1-A4D4-BA6C4F62F97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="206">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2344,19 +2456,33 @@
   </si>
   <si>
     <t>table_field_width</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ush</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2367,25 +2493,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2425,157 +2551,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -2604,6 +2579,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2617,18 +2593,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2637,8 +2616,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2669,194 +2668,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2957,254 +2770,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3218,20 +2789,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3265,9 +2824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3275,59 +2831,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3400,6 +2925,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3657,273 +3185,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="34.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="25.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3937,7 +3462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:22">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4016,7 +3541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="5:21">
+    <row r="8" spans="1:22">
       <c r="E8" t="s">
         <v>72</v>
       </c>
@@ -4042,7 +3567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="5:21">
+    <row r="9" spans="1:22">
       <c r="E9" t="s">
         <v>78</v>
       </c>
@@ -4068,7 +3593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="5:21">
+    <row r="10" spans="1:22">
       <c r="E10" t="s">
         <v>81</v>
       </c>
@@ -4094,7 +3619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="5:21">
+    <row r="11" spans="1:22">
       <c r="E11" t="s">
         <v>84</v>
       </c>
@@ -4120,7 +3645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="5:21">
+    <row r="12" spans="1:22">
       <c r="E12" t="s">
         <v>87</v>
       </c>
@@ -4146,7 +3671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="5:21">
+    <row r="13" spans="1:22">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -4172,7 +3697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="5:21">
+    <row r="14" spans="1:22">
       <c r="E14" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +3723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="5:21">
+    <row r="15" spans="1:22">
       <c r="E15" t="s">
         <v>96</v>
       </c>
@@ -4224,7 +3749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="5:21">
+    <row r="16" spans="1:22">
       <c r="E16" t="s">
         <v>99</v>
       </c>
@@ -4250,7 +3775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="5:21">
+    <row r="17" spans="1:21">
       <c r="E17" t="s">
         <v>102</v>
       </c>
@@ -4276,7 +3801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4335,7 +3860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="5:19">
+    <row r="20" spans="1:21">
       <c r="E20" t="s">
         <v>118</v>
       </c>
@@ -4365,7 +3890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="5:19">
+    <row r="21" spans="1:21">
       <c r="E21" t="s">
         <v>118</v>
       </c>
@@ -4395,7 +3920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="5:19">
+    <row r="22" spans="1:21">
       <c r="E22" t="s">
         <v>118</v>
       </c>
@@ -4425,7 +3950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="5:19">
+    <row r="23" spans="1:21">
       <c r="E23" t="s">
         <v>118</v>
       </c>
@@ -4455,7 +3980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="5:19">
+    <row r="24" spans="1:21">
       <c r="E24" t="s">
         <v>118</v>
       </c>
@@ -4485,7 +4010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="5:19">
+    <row r="25" spans="1:21">
       <c r="E25" t="s">
         <v>118</v>
       </c>
@@ -4515,7 +4040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="5:19">
+    <row r="26" spans="1:21">
       <c r="E26" t="s">
         <v>118</v>
       </c>
@@ -4545,7 +4070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="5:19">
+    <row r="27" spans="1:21">
       <c r="E27" t="s">
         <v>118</v>
       </c>
@@ -4575,7 +4100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="5:19">
+    <row r="28" spans="1:21">
       <c r="E28" t="s">
         <v>118</v>
       </c>
@@ -4605,7 +4130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="5:19">
+    <row r="29" spans="1:21">
       <c r="E29" t="s">
         <v>118</v>
       </c>
@@ -4635,7 +4160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="5:19">
+    <row r="30" spans="1:21">
       <c r="E30" t="s">
         <v>118</v>
       </c>
@@ -4665,7 +4190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="5:19">
+    <row r="31" spans="1:21">
       <c r="E31" t="s">
         <v>118</v>
       </c>
@@ -4695,7 +4220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="5:19">
+    <row r="32" spans="1:21">
       <c r="E32" t="s">
         <v>118</v>
       </c>
@@ -5205,7 +4730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="5:19">
+    <row r="49" spans="1:20">
       <c r="E49" t="s">
         <v>118</v>
       </c>
@@ -5235,7 +4760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="5:19">
+    <row r="50" spans="1:20">
       <c r="E50" t="s">
         <v>118</v>
       </c>
@@ -5265,7 +4790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="5:19">
+    <row r="51" spans="1:20">
       <c r="E51" t="s">
         <v>118</v>
       </c>
@@ -5295,7 +4820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="5:19">
+    <row r="52" spans="1:20">
       <c r="E52" t="s">
         <v>118</v>
       </c>
@@ -5325,7 +4850,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="5:19">
+    <row r="53" spans="1:20">
       <c r="E53" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +4880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="5:19">
+    <row r="54" spans="1:20">
       <c r="E54" t="s">
         <v>118</v>
       </c>
@@ -5385,120 +4910,142 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" t="s">
+    <row r="55" spans="1:20">
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="str">
+        <f>E8</f>
+        <v>hpfm_lov-8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>183</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K57" t="s">
         <v>67</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L57" t="s">
         <v>68</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M57" t="s">
         <v>186</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N57" t="s">
         <v>187</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O57" t="s">
         <v>188</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P57" t="s">
         <v>189</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q57" t="s">
         <v>190</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R57" t="s">
         <v>191</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S57" t="s">
         <v>192</v>
       </c>
-      <c r="T56" t="s">
+      <c r="T57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>51</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>198</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J59" t="s">
         <v>199</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K59" t="s">
         <v>114</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M59" t="s">
         <v>201</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N59" t="s">
         <v>202</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O59" t="s">
         <v>203</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P59" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hzero-platform-lov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hrds\prod-repo-service\src\main\resources\script\db\init-data\hrds_prod_repo\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442ECEDA-FC54-42C1-A4D4-BA6C4F62F97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B3591-992E-4BC9-AAFC-5F60BFF20324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2831,11 +2831,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,7 +2847,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3215,11 +3215,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -3232,17 +3232,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
@@ -3353,11 +3353,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="28" t="s">
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4921,14 +4921,23 @@
       <c r="G55" t="s">
         <v>73</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="I55" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="J55" s="36" t="s">
+      <c r="J55" s="31" t="s">
         <v>205</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:20">
